--- a/demo/similarity_Y.xlsx
+++ b/demo/similarity_Y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>y_0</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -452,82 +452,99 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>y_3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>y_4</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>y_0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>y_1</t>
+        </is>
+      </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>2.296775783571396</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>2.374605230348826</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.628444349678551</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>y_1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>y_2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2.296775783571396</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2.727616358654567</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2.195706719942351</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>y_2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>y_3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2.374605230348826</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2.727616358654567</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.227891155330529</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>y_3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>y_4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1.628444349678551</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2.195706719942351</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2.227891155330529</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
